--- a/src/report/excel_report/APITestResult.xlsx
+++ b/src/report/excel_report/APITestResult.xlsx
@@ -638,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -772,9 +772,9 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L2" s="20" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="L2" s="16" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="M2" s="17" t="inlineStr">
@@ -873,6 +873,42 @@
         </is>
       </c>
       <c r="M4" s="19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="L5" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="L6" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M6" s="19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="L7" s="21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="M7" s="19" t="inlineStr">
         <is>
           <t>123</t>
         </is>

--- a/src/report/excel_report/APITestResult.xlsx
+++ b/src/report/excel_report/APITestResult.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -112,17 +112,12 @@
     <font>
       <name val="宋体"/>
       <b val="1"/>
-      <color rgb="00FF0000"/>
+      <color rgb="0000FF00"/>
     </font>
     <font>
       <name val="宋体"/>
       <b val="1"/>
       <color rgb="00FFFF00"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <b val="1"/>
-      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,12 +223,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -774,7 +763,7 @@
       </c>
       <c r="L2" s="16" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="M2" s="17" t="inlineStr">
@@ -822,7 +811,7 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L3" s="21" t="inlineStr">
+      <c r="L3" s="18" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -867,48 +856,12 @@
           <t>success</t>
         </is>
       </c>
-      <c r="L4" s="21" t="inlineStr">
+      <c r="L4" s="18" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="M4" s="19" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="L5" s="21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="M5" s="19" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="L6" s="21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="M6" s="19" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="L7" s="21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="M7" s="19" t="inlineStr">
         <is>
           <t>123</t>
         </is>

--- a/src/report/excel_report/APITestResult.xlsx
+++ b/src/report/excel_report/APITestResult.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -92,18 +92,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FFBBBBBB"/>
-      <sz val="10.5"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF89CA78"/>
-      <sz val="10.5"/>
-    </font>
-    <font>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
       <color theme="1"/>
@@ -117,7 +105,7 @@
     <font>
       <name val="宋体"/>
       <b val="1"/>
-      <color rgb="00FFFF00"/>
+      <color rgb="00FFCC00"/>
     </font>
   </fonts>
   <fills count="3">
@@ -209,20 +197,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,25 +619,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col width="14.109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="15.44140625" customWidth="1" style="1" min="2" max="2"/>
-    <col width="14.6640625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.44140625" customWidth="1" style="13" min="4" max="4"/>
-    <col width="46.5546875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="15.6640625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="14.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="15.5" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.5" customWidth="1" style="13" min="4" max="4"/>
+    <col width="46.5" customWidth="1" style="1" min="5" max="5"/>
+    <col width="15.625" customWidth="1" style="1" min="6" max="6"/>
     <col width="11" customWidth="1" style="1" min="7" max="7"/>
     <col width="28" customWidth="1" style="1" min="8" max="8"/>
-    <col width="12.88671875" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.109375" customWidth="1" style="1" min="10" max="10"/>
-    <col width="24.109375" customWidth="1" style="1" min="11" max="11"/>
-    <col width="8.88671875" customWidth="1" style="1" min="12" max="12"/>
-    <col width="10.21875" customWidth="1" style="1" min="13" max="13"/>
-    <col width="8.88671875" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="12.875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="24.125" customWidth="1" style="1" min="11" max="11"/>
+    <col width="8.875" customWidth="1" style="1" min="12" max="12"/>
+    <col width="10.25" customWidth="1" style="1" min="13" max="13"/>
+    <col width="8.875" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" s="15">
@@ -720,9 +708,9 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" s="15">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>查询QQ</t>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>腾讯域名拦截检测</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -730,9 +718,9 @@
           <t>event_query_001</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>qq信息查询</t>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>腾讯域名拦截检测</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -742,12 +730,12 @@
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>https://api.muxiaoguo.cn/api/QqInfo</t>
+          <t>https://api.muxiaoguo.cn/api/ymljjc</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>{"qq": "2186656812"}</t>
+          <t>{"url": "https://api.muxiaoguo.cn"}</t>
         </is>
       </c>
       <c r="G2" s="6" t="n"/>
@@ -772,10 +760,10 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="35.4" customHeight="1" s="15">
+    <row r="3" ht="35.45" customHeight="1" s="15">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>查询头像</t>
+          <t>成语接龙</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -785,7 +773,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>获取pc头像</t>
+          <t>成语接龙</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr">
@@ -795,12 +783,12 @@
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>https://api.muxiaoguo.cn/api/sjtx</t>
-        </is>
-      </c>
-      <c r="F3" s="14" t="inlineStr">
-        <is>
-          <t>{"method": "pc"}</t>
+          <t>https://api.muxiaoguo.cn/api/chengyujielong</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>{"word": "Start"}</t>
         </is>
       </c>
       <c r="J3" s="1" t="n">
@@ -892,7 +880,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -910,7 +898,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
